--- a/Happy Hour.xlsx
+++ b/Happy Hour.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/54680535009a7d12/Folders/04 Personal/Just Data Points I Want to Track/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/54680535009a7d12/Folders/04 Personal/Misc-Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30F71AC2-3998-4E06-8C03-4976E4ED1290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{30F71AC2-3998-4E06-8C03-4976E4ED1290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02D6F176-CFA1-4853-8ADD-026EFF465603}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8C0BA968-AB2C-4BFF-986C-2A7D06875D11}"/>
   </bookViews>
   <sheets>
-    <sheet name="Date Spots &amp; Happy Hours" sheetId="1" r:id="rId1"/>
+    <sheet name="Happy Hours" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Name</t>
   </si>
@@ -66,12 +66,6 @@
     <t>Cocktail Bar</t>
   </si>
   <si>
-    <t>$6 PBR &amp; whiskey shot</t>
-  </si>
-  <si>
-    <t>Friday Evenings</t>
-  </si>
-  <si>
     <t>Anejo</t>
   </si>
   <si>
@@ -88,6 +82,30 @@
   </si>
   <si>
     <t>Sun-Thurs 3-6:30pm</t>
+  </si>
+  <si>
+    <t>Mon-Sat 2-7pm</t>
+  </si>
+  <si>
+    <t>European Street Café</t>
+  </si>
+  <si>
+    <t>Indochine</t>
+  </si>
+  <si>
+    <t>BOGO Cocktails, beer, wine, $5 apps</t>
+  </si>
+  <si>
+    <t>Mon-Fri 2-5pm</t>
+  </si>
+  <si>
+    <t>$6 PBR &amp; whiskey shot, 7$ cocktails</t>
+  </si>
+  <si>
+    <t>Everyday 2-7pm</t>
+  </si>
+  <si>
+    <t>BOGO draft beer</t>
   </si>
 </sst>
 </file>
@@ -448,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9583BE5-56D3-4FCE-A33E-EA7916F7E994}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -497,38 +515,66 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Happy Hour.xlsx
+++ b/Happy Hour.xlsx
@@ -15,7 +15,7 @@
   <sheets>
     <sheet name="Happy Hours" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,6 +27,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -45,6 +46,9 @@
     <t>Special</t>
   </si>
   <si>
+    <t>When</t>
+  </si>
+  <si>
     <t>Blue Orchid</t>
   </si>
   <si>
@@ -54,18 +58,21 @@
     <t>$14 Entrees during Lunch</t>
   </si>
   <si>
-    <t>When</t>
+    <t>Weekdays 11-3pm</t>
   </si>
   <si>
     <t>Volstead</t>
   </si>
   <si>
-    <t>Weekdays 11-3pm</t>
-  </si>
-  <si>
     <t>Cocktail Bar</t>
   </si>
   <si>
+    <t>$6 PBR &amp; whiskey shot, 7$ cocktails</t>
+  </si>
+  <si>
+    <t>Mon-Sat 2-7pm</t>
+  </si>
+  <si>
     <t>Anejo</t>
   </si>
   <si>
@@ -84,12 +91,15 @@
     <t>Sun-Thurs 3-6:30pm</t>
   </si>
   <si>
-    <t>Mon-Sat 2-7pm</t>
-  </si>
-  <si>
     <t>European Street Café</t>
   </si>
   <si>
+    <t>BOGO draft beer</t>
+  </si>
+  <si>
+    <t>Everyday 2-7pm</t>
+  </si>
+  <si>
     <t>Indochine</t>
   </si>
   <si>
@@ -97,15 +107,6 @@
   </si>
   <si>
     <t>Mon-Fri 2-5pm</t>
-  </si>
-  <si>
-    <t>$6 PBR &amp; whiskey shot, 7$ cocktails</t>
-  </si>
-  <si>
-    <t>Everyday 2-7pm</t>
-  </si>
-  <si>
-    <t>BOGO draft beer</t>
   </si>
 </sst>
 </file>
@@ -469,7 +470,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -490,91 +491,91 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Happy Hour.xlsx
+++ b/Happy Hour.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/54680535009a7d12/Folders/04 Personal/Misc-Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{30F71AC2-3998-4E06-8C03-4976E4ED1290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02D6F176-CFA1-4853-8ADD-026EFF465603}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{30F71AC2-3998-4E06-8C03-4976E4ED1290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDF6E859-1452-42C2-BE5D-7B28C03DB180}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8C0BA968-AB2C-4BFF-986C-2A7D06875D11}"/>
   </bookViews>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>Name</t>
   </si>
@@ -107,6 +106,12 @@
   </si>
   <si>
     <t>Mon-Fri 2-5pm</t>
+  </si>
+  <si>
+    <t>Taco Lu</t>
+  </si>
+  <si>
+    <t>Tues-Fri 2-7pm</t>
   </si>
 </sst>
 </file>
@@ -467,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9583BE5-56D3-4FCE-A33E-EA7916F7E994}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -578,6 +583,17 @@
         <v>23</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
